--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,72 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -118,58 +127,46 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
   </si>
   <si>
     <t>…</t>
@@ -539,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.7666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,16 +976,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,28 +1026,28 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,16 +1076,16 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.4736842105263158</v>
+        <v>0.3125</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.3939393939393939</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.644927536231884</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C14">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.2916666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,16 +1226,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.2033898305084746</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.1408450704225352</v>
+        <v>0.1384335154826958</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>61</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5142857142857142</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.1384615384615385</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>56</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,16 +1376,16 @@
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.1347905282331512</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L18">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>950</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,31 +1423,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.09473684210526316</v>
+        <v>0.05731523378582202</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>86</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,16 +1476,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.08480565371024736</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,16 +1526,16 @@
         <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.06024096385542169</v>
+        <v>0.03341013824884793</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>624</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,13 +1555,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4358974358974359</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.05925925925925926</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>508</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1626,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.03492063492063492</v>
+        <v>0.01920614596670935</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>304</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1658,13 +1655,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1538461538461539</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1676,109 +1673,59 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>66</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.03367003367003367</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>12</v>
-      </c>
-      <c r="N24">
-        <v>0.83</v>
-      </c>
-      <c r="O24">
-        <v>0.17</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>287</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.02651296829971182</v>
-      </c>
-      <c r="L25">
-        <v>46</v>
-      </c>
-      <c r="M25">
-        <v>47</v>
-      </c>
-      <c r="N25">
-        <v>0.98</v>
-      </c>
-      <c r="O25">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1689</v>
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.01920614596670935</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>766</v>
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
